--- a/data/hotels_by_city/Dallas/Dallas_shard_11.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>a_mckinney11303</t>
+  </si>
+  <si>
     <t>05/25/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>This hotel is what is to be expected for the price. The hotel has bare minimal amenities, and a no frills approach. The room was a good size, and very clean. My only issues with this hotel were the small parking lot, and the rather rowdy bunch that congregated there. I guess I shouldn’t expect any differently on Super Bowl Sunday. If you’re looking for a hot shower and a night’s rest, this is the place for you. More</t>
   </si>
   <si>
+    <t>Kay P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r482229734-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I got the hotel with a 2 star rating through Priceline. I needed something cheap and close by Scarborough faire but nice. I think I got all of that and then some. Everything seemed well cleaned. The bed was a bit stiff but I slept very well. The room had a couch, mini fridge, microwave, coffee pot, table and chairs and other basic items and amenities. There's an ice machine where you can get free ice. The breakfast was nice. Not really anything for protein though. No eggs, sausage or bacon. Just things like pastries , cereal and fruit. The coffee was decent and if you don't like coffee they had a wonderful tea variety. We had dinner at the pizza inn next door. It was very nice and filling. For nice coffee we went to Starbucks right next door on the other side. There was also several other restaurants within walking distance. So the location of this hotel is wonderful.  If I need a hotel and am still on a budget for next years Scarborough then I will definitely stay here! Keep up the wonderful work americas best value inn!! The workers there was a delight!! They asked me how was my room and such. It seemed like they really cared. I was very happy! Thank you,thank you!! Ps the shower was amazing!! The water pressure and temperature just seems perfect!! I can't even get that good of a...I got the hotel with a 2 star rating through Priceline. I needed something cheap and close by Scarborough faire but nice. I think I got all of that and then some. Everything seemed well cleaned. The bed was a bit stiff but I slept very well. The room had a couch, mini fridge, microwave, coffee pot, table and chairs and other basic items and amenities. There's an ice machine where you can get free ice. The breakfast was nice. Not really anything for protein though. No eggs, sausage or bacon. Just things like pastries , cereal and fruit. The coffee was decent and if you don't like coffee they had a wonderful tea variety. We had dinner at the pizza inn next door. It was very nice and filling. For nice coffee we went to Starbucks right next door on the other side. There was also several other restaurants within walking distance. So the location of this hotel is wonderful.  If I need a hotel and am still on a budget for next years Scarborough then I will definitely stay here! Keep up the wonderful work americas best value inn!! The workers there was a delight!! They asked me how was my room and such. It seemed like they really cared. I was very happy! Thank you,thank you!! Ps the shower was amazing!! The water pressure and temperature just seems perfect!! I can't even get that good of a shower at home haha XDMore</t>
   </si>
   <si>
+    <t>CapeCodTenor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r472917492-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Just got back from staying at this hotel (03/29/2017 - 04/04/2017), and I liked it.  It's conveniently located right off of I67 and 5 minutes to I287, so a trip to either Dallas or Fort Worth is about 40-45 minutes, depending on traffic.  I don't think it took us more than 45 minutes to get to either city, 30 minutes most of the time as we usually left mid-morning.  The room was standard hotel size, so plenty of room to walk around.  The floors were hard wood and there was a small fridge and microwave in the room.  The wash area only had one sink, but plenty of room to spread out if someone else wanted to use the mirror.  The toilet/bath combo is typical of what I've seen in other hotels, which is small, but manageable.  There's a Walmart Super Center and a restaurant, Palio's, right behind the hotel for convenience.  The trip up Main Street to other restaurants and shopping takes less than 10 minutes, so you're good there.  The continental breakfast was adequate, I've seen better at other hotels.  And if I could make a suggestion to the hotel management it would be this: Group smoking and non-smoking rooms together.  For the week we were there we didn't have a problem with smoking room next to us.  Unfortunately our last night we had a chain smoker in the smoking room next to us which was a big...Just got back from staying at this hotel (03/29/2017 - 04/04/2017), and I liked it.  It's conveniently located right off of I67 and 5 minutes to I287, so a trip to either Dallas or Fort Worth is about 40-45 minutes, depending on traffic.  I don't think it took us more than 45 minutes to get to either city, 30 minutes most of the time as we usually left mid-morning.  The room was standard hotel size, so plenty of room to walk around.  The floors were hard wood and there was a small fridge and microwave in the room.  The wash area only had one sink, but plenty of room to spread out if someone else wanted to use the mirror.  The toilet/bath combo is typical of what I've seen in other hotels, which is small, but manageable.  There's a Walmart Super Center and a restaurant, Palio's, right behind the hotel for convenience.  The trip up Main Street to other restaurants and shopping takes less than 10 minutes, so you're good there.  The continental breakfast was adequate, I've seen better at other hotels.  And if I could make a suggestion to the hotel management it would be this: Group smoking and non-smoking rooms together.  For the week we were there we didn't have a problem with smoking room next to us.  Unfortunately our last night we had a chain smoker in the smoking room next to us which was a big problem.  He had both windows open as well as the the door, so all that smoke filled the corridor and made its way into our room via the air conditioner.  As that was our last night I didn't seen the point of asking to be moved, but it would be nice if smoking rooms were not next to non-smoking ones.More</t>
   </si>
   <si>
+    <t>johnrL7688NJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r471266492-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>This is First time i stayed at this motel. The motel is very nice for freinds and families beacuse it is very neat and has a peaceful environment. I stayed at the motel in March 2017 with freinds. It was awesome to have a free continental breakfast in the entryway since we could prepare everybody and out the entryway on time. Beds agreeable which is imperative. Carpet in the rooms appeared to be new. Great service. I simply needed to rundown this survey, on the grounds that the general population here are unbelievably neighborly, and the staff has gone well beyond. Particularly food and the manager. The pool seemed fun.More</t>
   </si>
   <si>
+    <t>tunnellrh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r461847189-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -306,6 +321,9 @@
     <t>Great staff, clean rooms, spacious, walking distance to food and shopping, awesome place to kick back and relax. Swimming pool, microwave, fridge, hair dryer, ironing board, cable tv, free wi-fi. Thank you!!More</t>
   </si>
   <si>
+    <t>nisargv2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r460390922-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -330,6 +348,9 @@
     <t>Next to Walmart and Starbucks and many other Restaurants! GREAT VALUE. Best place to stay in Midlothian. Nice rooms and great people. They have Laundry services and Vending machines too. Very good deals.More</t>
   </si>
   <si>
+    <t>jshortcuts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r460388712-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>staff was very friendly, atmosphere was very pleasant, rooms were very comfortable. plenty of clean linen and bath towels. conveniently close to eating and shopping establishments. nice breakfast selection. will visit again soon. More</t>
   </si>
   <si>
+    <t>shaffstall40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r460374663-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>It wad wonderful. The room was so clean.  The breakfast was very good. All staff was so friendly and very proffesional. I would highly recommend this establishment. I will be sending others to stay there. More</t>
   </si>
   <si>
+    <t>noebonilla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r460229012-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>Just a great time overall, I can't wait to go back again when I make a future visit again to Texas! Also, the breakfast there is delicious, and if it can ever be expanded, then please do so, it's a great thing to haveMore</t>
   </si>
   <si>
+    <t>Donald G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r453003914-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Brenda T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r449433871-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>I didn't expect much because I swore off this franchise in the past. The room had linoleum floors and was ver y clean. There was graffiti outside and the tub had been worn. Staff at night and day were both friendly.More</t>
   </si>
   <si>
+    <t>Leah P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r437166414-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>You get what you pay for - the rates are far lower than larger area motels.   The sheets were clean, the towels were clean, but there was only half a roll of TP in the room.  It wasn't replaced or replentished when the maid came.  The rooms are very dated. If you need a cheap room, well, that's what you will get.  I've stayed in far worse, but it's not one I would recommend.  Even just new carpet and some cosmetic work in the bath would do wonders for this place.More</t>
   </si>
   <si>
+    <t>Zygret Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r399700691-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -480,6 +519,9 @@
     <t>Clean, quiet, no bugs, wifi is 802.11n but seems to be shared: a 192 bit stream stutters and drops from 100 to 5 mbps, lighting ok, parking tight but doable. Starbucks next door,Arby's at the Love's truck stop nearby.My only complaint is the cigarette smoke smell, Once a smoking place, always a smoky place. There is no way to get rid of the smell. $70 plus $9 for the gov., July 2016.More</t>
   </si>
   <si>
+    <t>stephanie m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r391346245-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>This hotel was OK for the price that I paid.  There were several problems but we just lived through them.  We didn't feel really secure because the bolt on the door didn't work.  The chairs were really rickety, there was only lotion available, no soap or shampoo.  Most of the TV channels were fuzzy.  I definitely wore my flip flops the whole time that I was in the room because there were awful stains on the carpet.More</t>
   </si>
   <si>
+    <t>asperez66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r342368137-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -531,6 +576,9 @@
     <t>This is a tough one. Very affordable. Older hotel. Although my room wasn't ready well after my check in time. They accommodated me very nicely. Got a larger room in the corner. As I said it's a older hotel but they have made it very accommodating with a computer / business center in the lobby a open fitness center off to the side of the lobby. The service is nice the employees are friendly. Much better than the 1 star that their ratedMore</t>
   </si>
   <si>
+    <t>Blake K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r334852952-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -558,6 +606,9 @@
     <t>It was awesome  everyone is great and very nice nothing wrong right next to Walmart very convenient. Bed are good right next to high way great if your on business or anything like that the people who were there were nice and so was the staffMore</t>
   </si>
   <si>
+    <t>Waymegelli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r326777710-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>This is a decent hotel with friendly staff, and a limited, but free, breakfast.  Free WiFi, comfortable beds, and none of the bugs or dirt that some reviews mentioned.  Maybe we were lucky, maybe they've improved, I don't know, but I wouldn't hesitate to stay here again if I needed a room.More</t>
   </si>
   <si>
+    <t>Nathan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r323459071-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -612,6 +666,9 @@
     <t>Only hotel in the city. I can say it was clean and the staff was very nice. Is always busy so book ahead. Parking a little tight but reasonable. Sparce breakfast. TV channels not the best but wifi is ok. Staff accommodated me in every way possible. Would recommend if you had business close bye. More</t>
   </si>
   <si>
+    <t>Fineqpoet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r299877654-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -714,6 +771,9 @@
     <t>Disappointed. The reviews sounded good, but the room was not good. Dated, base board damages. Dirty ring in the bathtub. Fly infestation. Little dark specs in the sheets. I have pics. Rooms are on outside o elevator. Check in was slow. Will not stay here again.More</t>
   </si>
   <si>
+    <t>Katie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r275154814-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -732,6 +792,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Attatat R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r268380353-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -750,6 +813,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>djre4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r259373151-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -768,6 +834,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Frequenthotelguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r246166354-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -786,6 +855,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>K R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r215833230-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -798,6 +870,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Joni C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r209624463-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -825,6 +900,9 @@
     <t>Pulled up into the parking lot of this hotel. Very old and dated. Check in process wasn't bad. Got our keys to go up to our room and the door is ajar. We called out and then open the door and the room is been stripped but not really made up and its past check in time. So I go down to the desk and now the lobby full of people waiting to check in. Must have been a problem with some somebody's reservation the woman behind the counter is getting a little frustrated. Phone rings and she's very rude on the phone to the customer. Turns around and says it wasn't as bad as that sounded. But yes it was it was very rude. The room was okay it was clean bed wasn't bad. Lots of noise and people putting their little lawn chairs on the outside deck to have a party. One night it was very loud but the air conditioner with even louder so we didnt hear anything. I hear they put in a brand new motel couple miles down the road which is where I will be going next time I visit my daughter.More</t>
   </si>
   <si>
+    <t>Ella-Cinder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r209478586-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -849,6 +927,9 @@
     <t>This is where we stay when visiting family who live in Midlothian. It's an older property but it is clean, staff is friendly, it's a convenient and safe location. We appreciate that they are pet friendly since we always travel with our two small, well behaved dogs. Walmart is very close if you need supplies. Will stay here again. More</t>
   </si>
   <si>
+    <t>Mark D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r197071283-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -894,6 +975,9 @@
     <t>We were VERY pleased with this motel.  We were able to obtain a winter rate of 40% off, so the price was beyond reasonable!  Knowing that, we were hesitant about the room, but the reviews were right - it was an excellent choice! The room was spacious, it had a microwave and a large refrigerator/freezer, the bed was comfortable, and all amenities were provided.  The room was very clean and quiet, and the lady at the front desk was very friendly and helpful!  We will definitely stay here again if we are in the Midlothian area!More</t>
   </si>
   <si>
+    <t>bnd30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r180179150-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1002,9 @@
     <t>My family stayed from July until October and we loved it.Staff made us feel right at home.Rooms are non smoking.Plenty of room.Beds are to die for.And deep bathtubs for relaxing.Great location. Next to Pizza Inn. Walmart and Sweet Frog.All in walking distance.Pet friendly.More</t>
   </si>
   <si>
+    <t>Bhavik P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r177715355-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1023,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Nomita J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r164713668-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1044,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>ahs3079</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r152886534-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1062,9 @@
     <t xml:space="preserve">Me and My friend went over here.  It was a great hotel. Walmart is behind the motel. And on the opposite side there is a Love's Gas station. I would prefer you guys to visit at least once for a small hang-out trip. Midlothian is such a great place.  </t>
   </si>
   <si>
+    <t>182p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r152723700-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1083,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>ShakeyLSO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r126917732-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1101,9 @@
     <t>Had a nice stay over three nights.  Reservations were easy.  Held my rooms for 30 minutes, then emailed the info.  Rooms are clean, and quiet.  Hotel decor is a bit dated, but well maintained.  The staff is friendly and helpful.  Located at the intersections of US 281 and US 67 make it convenient to Fort Worth and Dallas.  We will stay here again.</t>
   </si>
   <si>
+    <t>SM4312</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r126887192-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -1021,6 +1123,9 @@
   </si>
   <si>
     <t>Stayed here while my husband was working at a nearby plant. Pros:The weekly rates were decent (I've stayed at a much nicer hotel for about $70 less per week), its right next to a starbucks and walmart. The breakfast looked pretty good.Cons:The pool area was closed, which is understandable but they had no chairs or tables to hang out at, and the overall area wasn't very inviting.I was only able to connect to 1 of their 4 wifi networks. It was pretty slow.The air conditioning had been messed with. The thermostat was put right in front of the vent so that it came on and off often but never got cool in the room, even though the temperature was set on 60. (Looked like they were trying to save money)Our microwave had hole eaten in to the plastic on the door.We had to add a few days to our stay (one day at a time), and were given the "managers special" ($70 a night). The last 3 hotels we were at had no problem with continuing our weekly rate. At $70 a night we could have been staying at the Hampton in Waxahache. Considering its the only hotel in Midlothian, its ok, but drive just 10-15 miles to Mansfield or Waxahachie and you can find something much nicer for the same price.More</t>
+  </si>
+  <si>
+    <t>shortwave40</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r83755454-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
@@ -1546,43 +1651,47 @@
       <c r="A2" t="n">
         <v>28573</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>118113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1604,56 +1713,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>28573</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>6698</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1665,56 +1778,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>28573</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>118114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1732,56 +1849,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>28573</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>118115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1793,56 +1914,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>28573</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>118116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1854,56 +1979,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28573</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>118117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1915,56 +2044,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>28573</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>118118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1976,56 +2109,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>115</v>
+      </c>
+      <c r="X8" t="s">
         <v>108</v>
       </c>
-      <c r="X8" t="s">
-        <v>102</v>
-      </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28573</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>118119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2037,56 +2174,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
         <v>108</v>
       </c>
-      <c r="X9" t="s">
-        <v>102</v>
-      </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>28573</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>118120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2098,56 +2239,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
         <v>108</v>
       </c>
-      <c r="X10" t="s">
-        <v>102</v>
-      </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>28573</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>6944</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2161,50 +2306,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>28573</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>24107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2216,56 +2365,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>28573</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>75111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2281,56 +2434,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28573</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>118121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2346,56 +2503,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>28573</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>39587</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2411,56 +2572,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>28573</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>118122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2472,56 +2637,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="X16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>28573</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>118123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2533,56 +2702,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>28573</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>118124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2600,56 +2773,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>28573</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>49737</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2661,47 +2838,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>28573</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>118125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -2718,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
@@ -2737,37 +2918,37 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2779,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="X21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
@@ -2798,37 +2979,37 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2840,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
@@ -2859,37 +3040,37 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2901,56 +3082,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>28573</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2964,50 +3149,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>28573</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>118126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>258</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3027,50 +3216,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28573</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>118127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3090,50 +3283,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>28573</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>118128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="O27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3151,35 +3348,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>28573</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>5166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3187,10 +3388,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="O28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3211,51 +3412,52 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28573</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>86095</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3267,47 +3469,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="X29" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28573</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>118129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3334,56 +3540,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="X30" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28573</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>21068</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3407,50 +3617,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>28573</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>118126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3472,47 +3686,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="X32" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>28573</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>118130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -3539,56 +3757,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="X33" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>28573</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>118131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="L34" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3612,50 +3834,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>28573</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>118132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>335</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3679,41 +3905,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>28573</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -3742,50 +3972,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28573</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>118134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>348</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="L37" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -3809,41 +4043,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>28573</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>118135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>355</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
@@ -3862,50 +4100,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>28573</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>118136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -3929,50 +4171,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>28573</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>19572</v>
+      </c>
+      <c r="C40" t="s">
+        <v>369</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -3996,7 +4242,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_11.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>a_mckinney11303</t>
-  </si>
-  <si>
-    <t>05/25/2018</t>
+    <t>08/16/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r559396506-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
@@ -189,9 +186,6 @@
     <t>This hotel is what is to be expected for the price. The hotel has bare minimal amenities, and a no frills approach. The room was a good size, and very clean. My only issues with this hotel were the small parking lot, and the rather rowdy bunch that congregated there. I guess I shouldn’t expect any differently on Super Bowl Sunday. If you’re looking for a hot shower and a night’s rest, this is the place for you. More</t>
   </si>
   <si>
-    <t>Kay P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r482229734-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t>I got the hotel with a 2 star rating through Priceline. I needed something cheap and close by Scarborough faire but nice. I think I got all of that and then some. Everything seemed well cleaned. The bed was a bit stiff but I slept very well. The room had a couch, mini fridge, microwave, coffee pot, table and chairs and other basic items and amenities. There's an ice machine where you can get free ice. The breakfast was nice. Not really anything for protein though. No eggs, sausage or bacon. Just things like pastries , cereal and fruit. The coffee was decent and if you don't like coffee they had a wonderful tea variety. We had dinner at the pizza inn next door. It was very nice and filling. For nice coffee we went to Starbucks right next door on the other side. There was also several other restaurants within walking distance. So the location of this hotel is wonderful.  If I need a hotel and am still on a budget for next years Scarborough then I will definitely stay here! Keep up the wonderful work americas best value inn!! The workers there was a delight!! They asked me how was my room and such. It seemed like they really cared. I was very happy! Thank you,thank you!! Ps the shower was amazing!! The water pressure and temperature just seems perfect!! I can't even get that good of a...I got the hotel with a 2 star rating through Priceline. I needed something cheap and close by Scarborough faire but nice. I think I got all of that and then some. Everything seemed well cleaned. The bed was a bit stiff but I slept very well. The room had a couch, mini fridge, microwave, coffee pot, table and chairs and other basic items and amenities. There's an ice machine where you can get free ice. The breakfast was nice. Not really anything for protein though. No eggs, sausage or bacon. Just things like pastries , cereal and fruit. The coffee was decent and if you don't like coffee they had a wonderful tea variety. We had dinner at the pizza inn next door. It was very nice and filling. For nice coffee we went to Starbucks right next door on the other side. There was also several other restaurants within walking distance. So the location of this hotel is wonderful.  If I need a hotel and am still on a budget for next years Scarborough then I will definitely stay here! Keep up the wonderful work americas best value inn!! The workers there was a delight!! They asked me how was my room and such. It seemed like they really cared. I was very happy! Thank you,thank you!! Ps the shower was amazing!! The water pressure and temperature just seems perfect!! I can't even get that good of a shower at home haha XDMore</t>
   </si>
   <si>
-    <t>CapeCodTenor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r472917492-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>Just got back from staying at this hotel (03/29/2017 - 04/04/2017), and I liked it.  It's conveniently located right off of I67 and 5 minutes to I287, so a trip to either Dallas or Fort Worth is about 40-45 minutes, depending on traffic.  I don't think it took us more than 45 minutes to get to either city, 30 minutes most of the time as we usually left mid-morning.  The room was standard hotel size, so plenty of room to walk around.  The floors were hard wood and there was a small fridge and microwave in the room.  The wash area only had one sink, but plenty of room to spread out if someone else wanted to use the mirror.  The toilet/bath combo is typical of what I've seen in other hotels, which is small, but manageable.  There's a Walmart Super Center and a restaurant, Palio's, right behind the hotel for convenience.  The trip up Main Street to other restaurants and shopping takes less than 10 minutes, so you're good there.  The continental breakfast was adequate, I've seen better at other hotels.  And if I could make a suggestion to the hotel management it would be this: Group smoking and non-smoking rooms together.  For the week we were there we didn't have a problem with smoking room next to us.  Unfortunately our last night we had a chain smoker in the smoking room next to us which was a big...Just got back from staying at this hotel (03/29/2017 - 04/04/2017), and I liked it.  It's conveniently located right off of I67 and 5 minutes to I287, so a trip to either Dallas or Fort Worth is about 40-45 minutes, depending on traffic.  I don't think it took us more than 45 minutes to get to either city, 30 minutes most of the time as we usually left mid-morning.  The room was standard hotel size, so plenty of room to walk around.  The floors were hard wood and there was a small fridge and microwave in the room.  The wash area only had one sink, but plenty of room to spread out if someone else wanted to use the mirror.  The toilet/bath combo is typical of what I've seen in other hotels, which is small, but manageable.  There's a Walmart Super Center and a restaurant, Palio's, right behind the hotel for convenience.  The trip up Main Street to other restaurants and shopping takes less than 10 minutes, so you're good there.  The continental breakfast was adequate, I've seen better at other hotels.  And if I could make a suggestion to the hotel management it would be this: Group smoking and non-smoking rooms together.  For the week we were there we didn't have a problem with smoking room next to us.  Unfortunately our last night we had a chain smoker in the smoking room next to us which was a big problem.  He had both windows open as well as the the door, so all that smoke filled the corridor and made its way into our room via the air conditioner.  As that was our last night I didn't seen the point of asking to be moved, but it would be nice if smoking rooms were not next to non-smoking ones.More</t>
   </si>
   <si>
-    <t>johnrL7688NJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r471266492-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -288,9 +276,6 @@
     <t>This is First time i stayed at this motel. The motel is very nice for freinds and families beacuse it is very neat and has a peaceful environment. I stayed at the motel in March 2017 with freinds. It was awesome to have a free continental breakfast in the entryway since we could prepare everybody and out the entryway on time. Beds agreeable which is imperative. Carpet in the rooms appeared to be new. Great service. I simply needed to rundown this survey, on the grounds that the general population here are unbelievably neighborly, and the staff has gone well beyond. Particularly food and the manager. The pool seemed fun.More</t>
   </si>
   <si>
-    <t>tunnellrh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r461847189-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -321,9 +306,6 @@
     <t>Great staff, clean rooms, spacious, walking distance to food and shopping, awesome place to kick back and relax. Swimming pool, microwave, fridge, hair dryer, ironing board, cable tv, free wi-fi. Thank you!!More</t>
   </si>
   <si>
-    <t>nisargv2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r460390922-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -348,9 +330,6 @@
     <t>Next to Walmart and Starbucks and many other Restaurants! GREAT VALUE. Best place to stay in Midlothian. Nice rooms and great people. They have Laundry services and Vending machines too. Very good deals.More</t>
   </si>
   <si>
-    <t>jshortcuts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r460388712-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -369,9 +348,6 @@
     <t>staff was very friendly, atmosphere was very pleasant, rooms were very comfortable. plenty of clean linen and bath towels. conveniently close to eating and shopping establishments. nice breakfast selection. will visit again soon. More</t>
   </si>
   <si>
-    <t>shaffstall40</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r460374663-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -390,9 +366,6 @@
     <t>It wad wonderful. The room was so clean.  The breakfast was very good. All staff was so friendly and very proffesional. I would highly recommend this establishment. I will be sending others to stay there. More</t>
   </si>
   <si>
-    <t>noebonilla</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r460229012-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -411,9 +384,6 @@
     <t>Just a great time overall, I can't wait to go back again when I make a future visit again to Texas! Also, the breakfast there is delicious, and if it can ever be expanded, then please do so, it's a great thing to haveMore</t>
   </si>
   <si>
-    <t>Donald G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r453003914-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -432,9 +402,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>Brenda T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r449433871-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -459,9 +426,6 @@
     <t>I didn't expect much because I swore off this franchise in the past. The room had linoleum floors and was ver y clean. There was graffiti outside and the tub had been worn. Staff at night and day were both friendly.More</t>
   </si>
   <si>
-    <t>Leah P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r437166414-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -489,9 +453,6 @@
     <t>You get what you pay for - the rates are far lower than larger area motels.   The sheets were clean, the towels were clean, but there was only half a roll of TP in the room.  It wasn't replaced or replentished when the maid came.  The rooms are very dated. If you need a cheap room, well, that's what you will get.  I've stayed in far worse, but it's not one I would recommend.  Even just new carpet and some cosmetic work in the bath would do wonders for this place.More</t>
   </si>
   <si>
-    <t>Zygret Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r399700691-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -519,9 +480,6 @@
     <t>Clean, quiet, no bugs, wifi is 802.11n but seems to be shared: a 192 bit stream stutters and drops from 100 to 5 mbps, lighting ok, parking tight but doable. Starbucks next door,Arby's at the Love's truck stop nearby.My only complaint is the cigarette smoke smell, Once a smoking place, always a smoky place. There is no way to get rid of the smell. $70 plus $9 for the gov., July 2016.More</t>
   </si>
   <si>
-    <t>stephanie m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r391346245-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -546,9 +504,6 @@
     <t>This hotel was OK for the price that I paid.  There were several problems but we just lived through them.  We didn't feel really secure because the bolt on the door didn't work.  The chairs were really rickety, there was only lotion available, no soap or shampoo.  Most of the TV channels were fuzzy.  I definitely wore my flip flops the whole time that I was in the room because there were awful stains on the carpet.More</t>
   </si>
   <si>
-    <t>asperez66</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r342368137-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -576,9 +531,6 @@
     <t>This is a tough one. Very affordable. Older hotel. Although my room wasn't ready well after my check in time. They accommodated me very nicely. Got a larger room in the corner. As I said it's a older hotel but they have made it very accommodating with a computer / business center in the lobby a open fitness center off to the side of the lobby. The service is nice the employees are friendly. Much better than the 1 star that their ratedMore</t>
   </si>
   <si>
-    <t>Blake K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r334852952-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -606,9 +558,6 @@
     <t>It was awesome  everyone is great and very nice nothing wrong right next to Walmart very convenient. Bed are good right next to high way great if your on business or anything like that the people who were there were nice and so was the staffMore</t>
   </si>
   <si>
-    <t>Waymegelli</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r326777710-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -636,9 +585,6 @@
     <t>This is a decent hotel with friendly staff, and a limited, but free, breakfast.  Free WiFi, comfortable beds, and none of the bugs or dirt that some reviews mentioned.  Maybe we were lucky, maybe they've improved, I don't know, but I wouldn't hesitate to stay here again if I needed a room.More</t>
   </si>
   <si>
-    <t>Nathan L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r323459071-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -666,9 +612,6 @@
     <t>Only hotel in the city. I can say it was clean and the staff was very nice. Is always busy so book ahead. Parking a little tight but reasonable. Sparce breakfast. TV channels not the best but wifi is ok. Staff accommodated me in every way possible. Would recommend if you had business close bye. More</t>
   </si>
   <si>
-    <t>Fineqpoet</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r299877654-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -771,9 +714,6 @@
     <t>Disappointed. The reviews sounded good, but the room was not good. Dated, base board damages. Dirty ring in the bathtub. Fly infestation. Little dark specs in the sheets. I have pics. Rooms are on outside o elevator. Check in was slow. Will not stay here again.More</t>
   </si>
   <si>
-    <t>Katie L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r275154814-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -792,9 +732,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Attatat R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r268380353-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -813,9 +750,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>djre4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r259373151-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -834,9 +768,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Frequenthotelguy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r246166354-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -855,9 +786,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>K R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r215833230-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -870,9 +798,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>Joni C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r209624463-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -900,9 +825,6 @@
     <t>Pulled up into the parking lot of this hotel. Very old and dated. Check in process wasn't bad. Got our keys to go up to our room and the door is ajar. We called out and then open the door and the room is been stripped but not really made up and its past check in time. So I go down to the desk and now the lobby full of people waiting to check in. Must have been a problem with some somebody's reservation the woman behind the counter is getting a little frustrated. Phone rings and she's very rude on the phone to the customer. Turns around and says it wasn't as bad as that sounded. But yes it was it was very rude. The room was okay it was clean bed wasn't bad. Lots of noise and people putting their little lawn chairs on the outside deck to have a party. One night it was very loud but the air conditioner with even louder so we didnt hear anything. I hear they put in a brand new motel couple miles down the road which is where I will be going next time I visit my daughter.More</t>
   </si>
   <si>
-    <t>Ella-Cinder</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r209478586-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -927,9 +849,6 @@
     <t>This is where we stay when visiting family who live in Midlothian. It's an older property but it is clean, staff is friendly, it's a convenient and safe location. We appreciate that they are pet friendly since we always travel with our two small, well behaved dogs. Walmart is very close if you need supplies. Will stay here again. More</t>
   </si>
   <si>
-    <t>Mark D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r197071283-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -975,9 +894,6 @@
     <t>We were VERY pleased with this motel.  We were able to obtain a winter rate of 40% off, so the price was beyond reasonable!  Knowing that, we were hesitant about the room, but the reviews were right - it was an excellent choice! The room was spacious, it had a microwave and a large refrigerator/freezer, the bed was comfortable, and all amenities were provided.  The room was very clean and quiet, and the lady at the front desk was very friendly and helpful!  We will definitely stay here again if we are in the Midlothian area!More</t>
   </si>
   <si>
-    <t>bnd30</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r180179150-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -1002,9 +918,6 @@
     <t>My family stayed from July until October and we loved it.Staff made us feel right at home.Rooms are non smoking.Plenty of room.Beds are to die for.And deep bathtubs for relaxing.Great location. Next to Pizza Inn. Walmart and Sweet Frog.All in walking distance.Pet friendly.More</t>
   </si>
   <si>
-    <t>Bhavik P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r177715355-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -1023,9 +936,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Nomita J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r164713668-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -1044,9 +954,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>ahs3079</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r152886534-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -1062,9 +969,6 @@
     <t xml:space="preserve">Me and My friend went over here.  It was a great hotel. Walmart is behind the motel. And on the opposite side there is a Love's Gas station. I would prefer you guys to visit at least once for a small hang-out trip. Midlothian is such a great place.  </t>
   </si>
   <si>
-    <t>182p</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r152723700-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -1083,9 +987,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>ShakeyLSO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r126917732-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -1101,9 +1002,6 @@
     <t>Had a nice stay over three nights.  Reservations were easy.  Held my rooms for 30 minutes, then emailed the info.  Rooms are clean, and quiet.  Hotel decor is a bit dated, but well maintained.  The staff is friendly and helpful.  Located at the intersections of US 281 and US 67 make it convenient to Fort Worth and Dallas.  We will stay here again.</t>
   </si>
   <si>
-    <t>SM4312</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r126887192-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
   </si>
   <si>
@@ -1123,9 +1021,6 @@
   </si>
   <si>
     <t>Stayed here while my husband was working at a nearby plant. Pros:The weekly rates were decent (I've stayed at a much nicer hotel for about $70 less per week), its right next to a starbucks and walmart. The breakfast looked pretty good.Cons:The pool area was closed, which is understandable but they had no chairs or tables to hang out at, and the overall area wasn't very inviting.I was only able to connect to 1 of their 4 wifi networks. It was pretty slow.The air conditioning had been messed with. The thermostat was put right in front of the vent so that it came on and off often but never got cool in the room, even though the temperature was set on 60. (Looked like they were trying to save money)Our microwave had hole eaten in to the plastic on the door.We had to add a few days to our stay (one day at a time), and were given the "managers special" ($70 a night). The last 3 hotels we were at had no problem with continuing our weekly rate. At $70 a night we could have been staying at the Hampton in Waxahache. Considering its the only hotel in Midlothian, its ok, but drive just 10-15 miles to Mansfield or Waxahachie and you can find something much nicer for the same price.More</t>
-  </si>
-  <si>
-    <t>shortwave40</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56288-d73340-r83755454-Americas_Best_Value_Inn_Midlothian_Mansfield-Midlothian_Texas.html</t>
@@ -1651,47 +1546,43 @@
       <c r="A2" t="n">
         <v>28573</v>
       </c>
-      <c r="B2" t="n">
-        <v>118113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1713,60 +1604,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>28573</v>
       </c>
-      <c r="B3" t="n">
-        <v>6698</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1778,60 +1665,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>28573</v>
       </c>
-      <c r="B4" t="n">
-        <v>118114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1849,60 +1732,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>28573</v>
       </c>
-      <c r="B5" t="n">
-        <v>118115</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1914,60 +1793,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>28573</v>
       </c>
-      <c r="B6" t="n">
-        <v>118116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1979,60 +1854,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28573</v>
       </c>
-      <c r="B7" t="n">
-        <v>118117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2044,60 +1915,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>28573</v>
       </c>
-      <c r="B8" t="n">
-        <v>118118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2109,60 +1976,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28573</v>
       </c>
-      <c r="B9" t="n">
-        <v>118119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2174,60 +2037,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
         <v>115</v>
-      </c>
-      <c r="X9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>28573</v>
       </c>
-      <c r="B10" t="n">
-        <v>118120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2239,60 +2098,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>28573</v>
       </c>
-      <c r="B11" t="n">
-        <v>6944</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2306,54 +2161,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>28573</v>
       </c>
-      <c r="B12" t="n">
-        <v>24107</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2365,60 +2216,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>28573</v>
       </c>
-      <c r="B13" t="n">
-        <v>75111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2434,60 +2281,56 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28573</v>
       </c>
-      <c r="B14" t="n">
-        <v>118121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2503,60 +2346,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>28573</v>
       </c>
-      <c r="B15" t="n">
-        <v>39587</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2572,60 +2411,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>28573</v>
       </c>
-      <c r="B16" t="n">
-        <v>118122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2637,60 +2472,56 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>28573</v>
       </c>
-      <c r="B17" t="n">
-        <v>118123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>186</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2702,60 +2533,56 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>28573</v>
       </c>
-      <c r="B18" t="n">
-        <v>118124</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2773,60 +2600,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>28573</v>
       </c>
-      <c r="B19" t="n">
-        <v>49737</v>
-      </c>
-      <c r="C19" t="s">
-        <v>206</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2838,51 +2661,47 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>28573</v>
       </c>
-      <c r="B20" t="n">
-        <v>118125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>216</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -2899,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -2918,37 +2737,37 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2960,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
@@ -2979,37 +2798,37 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3021,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="X22" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
@@ -3040,37 +2859,37 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3082,60 +2901,56 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="X23" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="Y23" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>28573</v>
       </c>
-      <c r="B24" t="n">
-        <v>2052</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3149,54 +2964,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>28573</v>
       </c>
-      <c r="B25" t="n">
-        <v>118126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>258</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="J25" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3216,54 +3027,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28573</v>
       </c>
-      <c r="B26" t="n">
-        <v>118127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>265</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3283,54 +3090,50 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>28573</v>
       </c>
-      <c r="B27" t="n">
-        <v>118128</v>
-      </c>
-      <c r="C27" t="s">
-        <v>272</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3348,39 +3151,35 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>28573</v>
       </c>
-      <c r="B28" t="n">
-        <v>5166</v>
-      </c>
-      <c r="C28" t="s">
-        <v>279</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="J28" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3388,10 +3187,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3412,52 +3211,51 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28573</v>
       </c>
-      <c r="B29" t="n">
-        <v>86095</v>
-      </c>
-      <c r="C29" t="s">
-        <v>284</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3469,51 +3267,47 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="X29" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="Y29" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28573</v>
       </c>
-      <c r="B30" t="n">
-        <v>118129</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3540,60 +3334,56 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="X30" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="Y30" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28573</v>
       </c>
-      <c r="B31" t="n">
-        <v>21068</v>
-      </c>
-      <c r="C31" t="s">
-        <v>303</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3617,54 +3407,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>28573</v>
       </c>
-      <c r="B32" t="n">
-        <v>118126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>265</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3686,51 +3472,47 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="X32" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>28573</v>
       </c>
-      <c r="B33" t="n">
-        <v>118130</v>
-      </c>
-      <c r="C33" t="s">
-        <v>319</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -3757,60 +3539,56 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="X33" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="Y33" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>28573</v>
       </c>
-      <c r="B34" t="n">
-        <v>118131</v>
-      </c>
-      <c r="C34" t="s">
-        <v>328</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J34" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="K34" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3834,54 +3612,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>28573</v>
       </c>
-      <c r="B35" t="n">
-        <v>118132</v>
-      </c>
-      <c r="C35" t="s">
-        <v>335</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3905,45 +3679,41 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>28573</v>
       </c>
-      <c r="B36" t="n">
-        <v>118133</v>
-      </c>
-      <c r="C36" t="s">
-        <v>342</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -3972,54 +3742,50 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28573</v>
       </c>
-      <c r="B37" t="n">
-        <v>118134</v>
-      </c>
-      <c r="C37" t="s">
-        <v>348</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="J37" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4043,45 +3809,41 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>28573</v>
       </c>
-      <c r="B38" t="n">
-        <v>118135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>355</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
@@ -4100,54 +3862,50 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>28573</v>
       </c>
-      <c r="B39" t="n">
-        <v>118136</v>
-      </c>
-      <c r="C39" t="s">
-        <v>361</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="J39" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="K39" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4171,54 +3929,50 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>28573</v>
       </c>
-      <c r="B40" t="n">
-        <v>19572</v>
-      </c>
-      <c r="C40" t="s">
-        <v>369</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>46</v>
       </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="J40" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="O40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4242,7 +3996,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
